--- a/GroceryApplicationProject/src/test/resources/TestData.xlsx
+++ b/GroceryApplicationProject/src/test/resources/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Netcom\Desktop\Niranjana Obsqura\JAVA\Eclipse\Grocery Application project\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Netcom\Desktop\Niranjana Obsqura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8FE073-B357-4825-A67E-C5BF7FBB9AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F255365-DFD6-4AA9-B39E-B05399E559D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="680" windowWidth="14400" windowHeight="7360" xr2:uid="{7DE7987B-6C38-4540-8212-58F6E207B931}"/>
   </bookViews>
@@ -425,7 +425,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -468,10 +468,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
